--- a/Data/quarter_on_quarter_from_yoy_model.xlsx
+++ b/Data/quarter_on_quarter_from_yoy_model.xlsx
@@ -546,7 +546,7 @@
         <v>42917</v>
       </c>
       <c r="C2">
-        <v>2.477542471393601</v>
+        <v>1.832888220126638</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43009</v>
       </c>
       <c r="C3">
-        <v>0.3106851653212228</v>
+        <v>0.3755447841281567</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>43101</v>
       </c>
       <c r="C4">
-        <v>0.6842231128311393</v>
+        <v>0.4643251881778721</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>43191</v>
       </c>
       <c r="C5">
-        <v>-2.309954884163834</v>
+        <v>-2.197337716723746</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>43282</v>
       </c>
       <c r="C6">
-        <v>-1.044298082403528</v>
+        <v>-0.5815562132714946</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>43374</v>
       </c>
       <c r="C7">
-        <v>1.079455036801136</v>
+        <v>1.100786598804393</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>43466</v>
       </c>
       <c r="C8">
-        <v>0.4159644984844446</v>
+        <v>0.06140253855579925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -609,7 +609,7 @@
         <v>43556</v>
       </c>
       <c r="C9">
-        <v>-3.600236561439685</v>
+        <v>-2.966941541212387</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,7 +618,7 @@
         <v>43647</v>
       </c>
       <c r="C10">
-        <v>1.345529887296126</v>
+        <v>1.278610239008326</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>43739</v>
       </c>
       <c r="C11">
-        <v>-1.036441726080439</v>
+        <v>-1.007742620099716</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -636,7 +636,7 @@
         <v>43831</v>
       </c>
       <c r="C12">
-        <v>-4.493220009745025</v>
+        <v>-5.27882227415054</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,7 +645,7 @@
         <v>43922</v>
       </c>
       <c r="C13">
-        <v>-15.03248919724187</v>
+        <v>-14.60707488544897</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>44013</v>
       </c>
       <c r="C14">
-        <v>9.040785365666636</v>
+        <v>9.492172669386822</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -663,7 +663,7 @@
         <v>44105</v>
       </c>
       <c r="C15">
-        <v>3.653313023714211</v>
+        <v>3.720909029710961</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -672,7 +672,7 @@
         <v>44197</v>
       </c>
       <c r="C16">
-        <v>4.676782734288687</v>
+        <v>4.374540991796061</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>44287</v>
       </c>
       <c r="C17">
-        <v>-8.756853016731792</v>
+        <v>-9.463932368697037</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>42917</v>
       </c>
       <c r="C18">
-        <v>0.4840711028050393</v>
+        <v>0.1544755711901047</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -701,7 +701,7 @@
         <v>43009</v>
       </c>
       <c r="C19">
-        <v>0.8110349097245173</v>
+        <v>0.7687253920309889</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -710,7 +710,7 @@
         <v>43101</v>
       </c>
       <c r="C20">
-        <v>0.6508666591553469</v>
+        <v>0.5621567366145497</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -719,7 +719,7 @@
         <v>43191</v>
       </c>
       <c r="C21">
-        <v>1.011308601093086</v>
+        <v>1.156919154752223</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -728,7 +728,7 @@
         <v>43282</v>
       </c>
       <c r="C22">
-        <v>0.952834432977423</v>
+        <v>0.6953271662608174</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -737,7 +737,7 @@
         <v>43374</v>
       </c>
       <c r="C23">
-        <v>0.1953297048510327</v>
+        <v>-0.06626341759131682</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -746,7 +746,7 @@
         <v>43466</v>
       </c>
       <c r="C24">
-        <v>0.5302277962662139</v>
+        <v>0.6612697246053623</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -755,7 +755,7 @@
         <v>43556</v>
       </c>
       <c r="C25">
-        <v>0.3952806968373856</v>
+        <v>0.5374747669615765</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -764,7 +764,7 @@
         <v>43647</v>
       </c>
       <c r="C26">
-        <v>0.4024904886447134</v>
+        <v>0.3641549547505951</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +773,7 @@
         <v>43739</v>
       </c>
       <c r="C27">
-        <v>-0.07103566275824535</v>
+        <v>0.2663231413288836</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43831</v>
       </c>
       <c r="C28">
-        <v>-2.993966556885408</v>
+        <v>-3.086693644708416</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -791,7 +791,7 @@
         <v>43922</v>
       </c>
       <c r="C29">
-        <v>-4.870258014100104</v>
+        <v>-4.731080631146478</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>44013</v>
       </c>
       <c r="C30">
-        <v>4.486486176167093</v>
+        <v>4.120114506514305</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -809,7 +809,7 @@
         <v>44105</v>
       </c>
       <c r="C31">
-        <v>3.948582780603394</v>
+        <v>3.433095075049786</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -818,7 +818,7 @@
         <v>44197</v>
       </c>
       <c r="C32">
-        <v>5.727953379903261</v>
+        <v>5.620898934140528</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -827,7 +827,7 @@
         <v>44287</v>
       </c>
       <c r="C33">
-        <v>0.5754418976108733</v>
+        <v>0.6477454605082533</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -838,7 +838,7 @@
         <v>42917</v>
       </c>
       <c r="C34">
-        <v>0.5052511509093804</v>
+        <v>1.215052184863508</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -847,7 +847,7 @@
         <v>43009</v>
       </c>
       <c r="C35">
-        <v>0.6933938192846156</v>
+        <v>0.7288222196584426</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -856,7 +856,7 @@
         <v>43101</v>
       </c>
       <c r="C36">
-        <v>0.7906764478261996</v>
+        <v>0.1472050394951463</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -865,7 +865,7 @@
         <v>43191</v>
       </c>
       <c r="C37">
-        <v>0.4535918478655976</v>
+        <v>0.5376332237320147</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -874,7 +874,7 @@
         <v>43282</v>
       </c>
       <c r="C38">
-        <v>0.1636523760498276</v>
+        <v>0.2568383600856317</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -883,7 +883,7 @@
         <v>43374</v>
       </c>
       <c r="C39">
-        <v>0.5919646992755601</v>
+        <v>0.1174816413375357</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43466</v>
       </c>
       <c r="C40">
-        <v>0.4846869107397067</v>
+        <v>1.433188156712917</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -901,7 +901,7 @@
         <v>43556</v>
       </c>
       <c r="C41">
-        <v>1.057917532765562</v>
+        <v>0.8395443898715715</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -910,7 +910,7 @@
         <v>43647</v>
       </c>
       <c r="C42">
-        <v>0.01760870593590091</v>
+        <v>-0.8125963961140292</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -919,7 +919,7 @@
         <v>43739</v>
       </c>
       <c r="C43">
-        <v>0.8289625747603724</v>
+        <v>1.033465289019708</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -928,7 +928,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-5.119395835409346</v>
+        <v>-4.384626197268915</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -937,7 +937,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-8.678532067471622</v>
+        <v>-8.829925687025797</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -946,7 +946,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>8.672404721911974</v>
+        <v>8.894101886789585</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -955,7 +955,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>-1.97080042646175</v>
+        <v>-2.251839096803665</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -964,7 +964,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>0.4802966782033513</v>
+        <v>2.178411670106684</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -973,7 +973,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-3.243274581004496</v>
+        <v>-2.860021145328484</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -984,7 +984,7 @@
         <v>42917</v>
       </c>
       <c r="C50">
-        <v>1.112633895336912</v>
+        <v>1.540327632654015</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -993,7 +993,7 @@
         <v>43009</v>
       </c>
       <c r="C51">
-        <v>-0.04815158639659423</v>
+        <v>0.2199315800720747</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43101</v>
       </c>
       <c r="C52">
-        <v>0.9978397351588342</v>
+        <v>0.5178005430175769</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>43191</v>
       </c>
       <c r="C53">
-        <v>0.420155152472157</v>
+        <v>1.133744962731442</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>43282</v>
       </c>
       <c r="C54">
-        <v>-0.8528128001965674</v>
+        <v>-0.6747379869549541</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>43374</v>
       </c>
       <c r="C55">
-        <v>1.03100861124541</v>
+        <v>0.1828174455390297</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>43466</v>
       </c>
       <c r="C56">
-        <v>0.2320722717267465</v>
+        <v>0.6998322999285156</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>43556</v>
       </c>
       <c r="C57">
-        <v>0.2739722898290387</v>
+        <v>0.278790062514056</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>43647</v>
       </c>
       <c r="C58">
-        <v>0.4319443460528261</v>
+        <v>0.4004841953223259</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>43739</v>
       </c>
       <c r="C59">
-        <v>0.8413278984756856</v>
+        <v>1.050968730036916</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>43831</v>
       </c>
       <c r="C60">
-        <v>-5.190748645697917</v>
+        <v>-5.305207405408097</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>43922</v>
       </c>
       <c r="C61">
-        <v>-8.988668051280403</v>
+        <v>-8.199362003466826</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>44013</v>
       </c>
       <c r="C62">
-        <v>10.72712232446249</v>
+        <v>9.671968764604234</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>44105</v>
       </c>
       <c r="C63">
-        <v>-1.212725041951046</v>
+        <v>-0.5076557313172136</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>44197</v>
       </c>
       <c r="C64">
-        <v>1.680950542049242</v>
+        <v>2.030147114460745</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>44287</v>
       </c>
       <c r="C65">
-        <v>-3.601077913497663</v>
+        <v>-3.193144858417574</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>42917</v>
       </c>
       <c r="C66">
-        <v>-1.753446709704809</v>
+        <v>-1.018789692883715</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>43009</v>
       </c>
       <c r="C67">
-        <v>0.7410633879441075</v>
+        <v>0.2475938969884739</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>43101</v>
       </c>
       <c r="C68">
-        <v>1.253019172434766</v>
+        <v>1.04125966341051</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1157,7 +1157,7 @@
         <v>43191</v>
       </c>
       <c r="C69">
-        <v>-0.1584473096961636</v>
+        <v>0.1126673912096976</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>43282</v>
       </c>
       <c r="C70">
-        <v>-0.1081356946341816</v>
+        <v>-0.02080985666134127</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>43374</v>
       </c>
       <c r="C71">
-        <v>0.9375200312593091</v>
+        <v>0.8960197884001042</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>43466</v>
       </c>
       <c r="C72">
-        <v>0.91761444311933</v>
+        <v>1.25404525879278</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1193,7 +1193,7 @@
         <v>43556</v>
       </c>
       <c r="C73">
-        <v>-0.2056738581487916</v>
+        <v>-0.4123993135916049</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>43647</v>
       </c>
       <c r="C74">
-        <v>1.267802029582477</v>
+        <v>0.8737125731216322</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>43739</v>
       </c>
       <c r="C75">
-        <v>-0.6468886130682083</v>
+        <v>-0.5876490835741044</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,7 +1220,7 @@
         <v>43831</v>
       </c>
       <c r="C76">
-        <v>-1.88786267131853</v>
+        <v>-1.985547188715708</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>43922</v>
       </c>
       <c r="C77">
-        <v>-8.921323631444732</v>
+        <v>-9.683093557393196</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>44013</v>
       </c>
       <c r="C78">
-        <v>6.428836403037308</v>
+        <v>7.546016913646736</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>44105</v>
       </c>
       <c r="C79">
-        <v>3.927122278149398</v>
+        <v>3.696931777994972</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>44197</v>
       </c>
       <c r="C80">
-        <v>-0.6244741327464443</v>
+        <v>0.3091986692410842</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>44287</v>
       </c>
       <c r="C81">
-        <v>-1.637000051080773</v>
+        <v>-2.468143099292097</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>42917</v>
       </c>
       <c r="C82">
-        <v>0.1223075858276967</v>
+        <v>-0.4592150542178985</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>43009</v>
       </c>
       <c r="C83">
-        <v>1.557523922495796</v>
+        <v>1.347222941289283</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>43101</v>
       </c>
       <c r="C84">
-        <v>0.554459100269189</v>
+        <v>-0.09138831659400992</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>43191</v>
       </c>
       <c r="C85">
-        <v>1.054817494162874</v>
+        <v>0.7371478139284626</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>43282</v>
       </c>
       <c r="C86">
-        <v>0.4565525179045515</v>
+        <v>0.2625732417279147</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>43374</v>
       </c>
       <c r="C87">
-        <v>0.1422043631454928</v>
+        <v>-0.1184663019828669</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43466</v>
       </c>
       <c r="C88">
-        <v>1.016038255657836</v>
+        <v>1.323964267855127</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43556</v>
       </c>
       <c r="C89">
-        <v>-0.7442073997981025</v>
+        <v>0.2348094618607632</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>43647</v>
       </c>
       <c r="C90">
-        <v>3.130208997991479</v>
+        <v>2.823136785216618</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>43739</v>
       </c>
       <c r="C91">
-        <v>-0.6848076256812829</v>
+        <v>-1.025567399087468</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-2.002906459060994</v>
+        <v>-2.133544387289343</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-6.430113918738789</v>
+        <v>-6.223440684013748</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>5.575950824426568</v>
+        <v>3.571318189498052</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>0.9607626592574858</v>
+        <v>1.627124198894903</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1402,7 +1402,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>6.3662138110544</v>
+        <v>6.539223847541065</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>-3.375172374588753</v>
+        <v>-1.523116122190349</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>42917</v>
       </c>
       <c r="C98">
-        <v>1.186395976690013</v>
+        <v>1.131296365829115</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>43009</v>
       </c>
       <c r="C99">
-        <v>0.3853953904537244</v>
+        <v>0.6623482122483759</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1440,7 +1440,7 @@
         <v>43101</v>
       </c>
       <c r="C100">
-        <v>0.9498231865102902</v>
+        <v>0.7195735556045246</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>43191</v>
       </c>
       <c r="C101">
-        <v>1.075181956045812</v>
+        <v>0.8787124371207655</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>43282</v>
       </c>
       <c r="C102">
-        <v>0.1996807293622282</v>
+        <v>0.07325595035703181</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>43374</v>
       </c>
       <c r="C103">
-        <v>0.4561832543717559</v>
+        <v>0.4005441017263411</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>43466</v>
       </c>
       <c r="C104">
-        <v>0.289505499013254</v>
+        <v>0.7267444478691321</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>43556</v>
       </c>
       <c r="C105">
-        <v>0.4495874005837841</v>
+        <v>0.4298856139093532</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>43647</v>
       </c>
       <c r="C106">
-        <v>0.6190315633693988</v>
+        <v>0.4968081173829075</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>43739</v>
       </c>
       <c r="C107">
-        <v>0.09792911331498733</v>
+        <v>0.1532340330322013</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1512,7 +1512,7 @@
         <v>43831</v>
       </c>
       <c r="C108">
-        <v>-3.364894084352588</v>
+        <v>-3.366175251507542</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>43922</v>
       </c>
       <c r="C109">
-        <v>-9.008507947152166</v>
+        <v>-9.123734067384904</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>44013</v>
       </c>
       <c r="C110">
-        <v>9.211602360981818</v>
+        <v>9.329988056459326</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1539,7 +1539,7 @@
         <v>44105</v>
       </c>
       <c r="C111">
-        <v>0.2343886087712077</v>
+        <v>0.533634186486176</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>44197</v>
       </c>
       <c r="C112">
-        <v>2.485414628506133</v>
+        <v>2.553083062383377</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>44287</v>
       </c>
       <c r="C113">
-        <v>-6.02192333314775</v>
+        <v>-5.743285303207424</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1568,7 +1568,7 @@
         <v>42917</v>
       </c>
       <c r="C114">
-        <v>1.428726355226706</v>
+        <v>1.021758174863185</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>43009</v>
       </c>
       <c r="C115">
-        <v>-0.3559195774372137</v>
+        <v>-0.642657539272895</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>43101</v>
       </c>
       <c r="C116">
-        <v>0.4667451477913254</v>
+        <v>0.0212519882731188</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>43191</v>
       </c>
       <c r="C117">
-        <v>0.2023898434335258</v>
+        <v>0.5283589404047051</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>43282</v>
       </c>
       <c r="C118">
-        <v>1.647720217340609</v>
+        <v>1.491520714905548</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>43374</v>
       </c>
       <c r="C119">
-        <v>0.7001466432986936</v>
+        <v>1.121577236523863</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1622,7 +1622,7 @@
         <v>43466</v>
       </c>
       <c r="C120">
-        <v>1.326490260131852</v>
+        <v>1.447523026213582</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>43556</v>
       </c>
       <c r="C121">
-        <v>1.034833125346979</v>
+        <v>1.134279735824673</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>43647</v>
       </c>
       <c r="C122">
-        <v>-0.4101063421362516</v>
+        <v>-0.2970965517202218</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1649,7 +1649,7 @@
         <v>43739</v>
       </c>
       <c r="C123">
-        <v>-1.383844056063654</v>
+        <v>-2.544482444778873</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>43831</v>
       </c>
       <c r="C124">
-        <v>-1.984556795944914</v>
+        <v>-2.25904938538708</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>43922</v>
       </c>
       <c r="C125">
-        <v>-11.17610671237542</v>
+        <v>-11.54677361770905</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>44013</v>
       </c>
       <c r="C126">
-        <v>8.455070485341576</v>
+        <v>9.623793246500313</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>44105</v>
       </c>
       <c r="C127">
-        <v>3.835313177441413</v>
+        <v>3.680709640740765</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>44197</v>
       </c>
       <c r="C128">
-        <v>3.103689501395679</v>
+        <v>3.354269862858694</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>44287</v>
       </c>
       <c r="C129">
-        <v>-4.767817333404134</v>
+        <v>-4.127310234210634</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>42917</v>
       </c>
       <c r="C130">
-        <v>-1.146988594578302</v>
+        <v>0.4474829166291938</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>43009</v>
       </c>
       <c r="C131">
-        <v>0.9482789389050783</v>
+        <v>0.4422696837933282</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1732,7 +1732,7 @@
         <v>43101</v>
       </c>
       <c r="C132">
-        <v>-0.1866115780217115</v>
+        <v>0.04103682294995803</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>43191</v>
       </c>
       <c r="C133">
-        <v>-0.02258006054984829</v>
+        <v>-0.004453679983440484</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>43282</v>
       </c>
       <c r="C134">
-        <v>0.8091307289618932</v>
+        <v>0.3335552961653887</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1759,7 +1759,7 @@
         <v>43374</v>
       </c>
       <c r="C135">
-        <v>1.310663301879456</v>
+        <v>2.05089768733886</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>43466</v>
       </c>
       <c r="C136">
-        <v>0.4404755872397637</v>
+        <v>0.007307933719102877</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>43556</v>
       </c>
       <c r="C137">
-        <v>2.005913713799634</v>
+        <v>2.332827188013042</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>43647</v>
       </c>
       <c r="C138">
-        <v>0.5091706764868587</v>
+        <v>-0.04508593277104955</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>43739</v>
       </c>
       <c r="C139">
-        <v>-0.5545216307965117</v>
+        <v>-0.2674250793410993</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.721277513879717</v>
+        <v>-4.045307953061816</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-10.48196090220972</v>
+        <v>-11.36861509508084</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>7.139629443625073</v>
+        <v>7.972798736463593</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1831,7 +1831,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>6.930220664577047</v>
+        <v>7.001203222627783</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>1.868117290122195</v>
+        <v>3.172264549985671</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-8.156252172108347</v>
+        <v>-9.27020792173373</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>42917</v>
       </c>
       <c r="C146">
-        <v>-0.03773030443534608</v>
+        <v>-0.1395559131248003</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1869,7 +1869,7 @@
         <v>43009</v>
       </c>
       <c r="C147">
-        <v>1.371311641528816</v>
+        <v>1.505102788915602</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>43101</v>
       </c>
       <c r="C148">
-        <v>0.3338018768052509</v>
+        <v>1.060758081989555</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1887,7 +1887,7 @@
         <v>43191</v>
       </c>
       <c r="C149">
-        <v>2.846636821310522</v>
+        <v>2.070278698332495</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>43282</v>
       </c>
       <c r="C150">
-        <v>-0.1701645920904271</v>
+        <v>0.4161810811321054</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>43374</v>
       </c>
       <c r="C151">
-        <v>0.3522899331049212</v>
+        <v>0.6629368165344873</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>43466</v>
       </c>
       <c r="C152">
-        <v>0.577927364275177</v>
+        <v>-0.148276557019944</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>43556</v>
       </c>
       <c r="C153">
-        <v>0.9983991971862949</v>
+        <v>1.379333751821088</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>43647</v>
       </c>
       <c r="C154">
-        <v>0.02944640715005775</v>
+        <v>0.3275010186632565</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>43739</v>
       </c>
       <c r="C155">
-        <v>0.6044720345235399</v>
+        <v>-0.1845686096588306</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>43831</v>
       </c>
       <c r="C156">
-        <v>-4.232284390906649</v>
+        <v>-3.476313028875233</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>43922</v>
       </c>
       <c r="C157">
-        <v>-5.316947039366315</v>
+        <v>-5.198059199769089</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1968,7 +1968,7 @@
         <v>44013</v>
       </c>
       <c r="C158">
-        <v>7.427201148726281</v>
+        <v>6.182201142872046</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>44105</v>
       </c>
       <c r="C159">
-        <v>-2.58861244099845</v>
+        <v>-1.560769223487524</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -1986,7 +1986,7 @@
         <v>44197</v>
       </c>
       <c r="C160">
-        <v>0.1280178399918119</v>
+        <v>1.993615801679449</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>44287</v>
       </c>
       <c r="C161">
-        <v>-1.577953605115634</v>
+        <v>-3.335874535436611</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>42917</v>
       </c>
       <c r="C162">
-        <v>0.4072306052175456</v>
+        <v>0.4711805922447798</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>43009</v>
       </c>
       <c r="C163">
-        <v>1.569922005962865</v>
+        <v>0.2128180796561185</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>43101</v>
       </c>
       <c r="C164">
-        <v>-0.3083572654153932</v>
+        <v>0.06133719523901959</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>43191</v>
       </c>
       <c r="C165">
-        <v>0.4165425621585728</v>
+        <v>1.231188840103248</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>43282</v>
       </c>
       <c r="C166">
-        <v>-0.2131847414213461</v>
+        <v>-0.5013238369189321</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>43374</v>
       </c>
       <c r="C167">
-        <v>1.31226114067029</v>
+        <v>1.050154657606228</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>43466</v>
       </c>
       <c r="C168">
-        <v>1.32668785432688</v>
+        <v>0.8235790452989722</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>43556</v>
       </c>
       <c r="C169">
-        <v>0.1476950415307599</v>
+        <v>0.6667928529307865</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>43647</v>
       </c>
       <c r="C170">
-        <v>0.1738504355451864</v>
+        <v>-0.2146628570873221</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>43739</v>
       </c>
       <c r="C171">
-        <v>0.4470375511655078</v>
+        <v>0.7356427549272349</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2096,7 +2096,7 @@
         <v>43831</v>
       </c>
       <c r="C172">
-        <v>-2.008591082847766</v>
+        <v>-1.946873898719836</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>43922</v>
       </c>
       <c r="C173">
-        <v>-4.991957697053273</v>
+        <v>-3.816764545361473</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>44013</v>
       </c>
       <c r="C174">
-        <v>5.892585695679209</v>
+        <v>4.337842991854335</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>44105</v>
       </c>
       <c r="C175">
-        <v>-0.4332996388634269</v>
+        <v>-0.06260261855460802</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44197</v>
       </c>
       <c r="C176">
-        <v>0.7486316805768833</v>
+        <v>2.044464975644944</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44287</v>
       </c>
       <c r="C177">
-        <v>-0.7949608603030067</v>
+        <v>-2.05696686064637</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>42917</v>
       </c>
       <c r="C178">
-        <v>0.1016493583621436</v>
+        <v>3.588423203662994</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2161,7 +2161,7 @@
         <v>43009</v>
       </c>
       <c r="C179">
-        <v>0.3577733501201941</v>
+        <v>0.7004003848353868</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43101</v>
       </c>
       <c r="C180">
-        <v>2.132581314522408</v>
+        <v>1.255237804756804</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43191</v>
       </c>
       <c r="C181">
-        <v>1.718673067127696</v>
+        <v>3.921136325136132</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>43282</v>
       </c>
       <c r="C182">
-        <v>0.6316834621886924</v>
+        <v>-0.9595636172259003</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>43374</v>
       </c>
       <c r="C183">
-        <v>-1.177323173277955</v>
+        <v>0.2941495203103273</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>43466</v>
       </c>
       <c r="C184">
-        <v>2.356963637105669</v>
+        <v>1.643037247812407</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>43556</v>
       </c>
       <c r="C185">
-        <v>1.345742501307368</v>
+        <v>0.8142276247315561</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>43647</v>
       </c>
       <c r="C186">
-        <v>1.063040469927379</v>
+        <v>-0.22239685715022</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>43739</v>
       </c>
       <c r="C187">
-        <v>1.684019394854497</v>
+        <v>1.759602051320064</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-2.940558835332652</v>
+        <v>-1.376178224104929</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-3.583710431451825</v>
+        <v>-4.038191351622111</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2260,7 +2260,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>4.598621596934938</v>
+        <v>3.640857971990874</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>1.498280653345807</v>
+        <v>3.153072786482847</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>2.515388144238795</v>
+        <v>1.609353254246182</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>-1.399270146153686</v>
+        <v>-2.309518567596125</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>42917</v>
       </c>
       <c r="C194">
-        <v>-0.01870249492009757</v>
+        <v>1.336684411461508</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>43009</v>
       </c>
       <c r="C195">
-        <v>-0.1058129789515916</v>
+        <v>0.3133727120423924</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2316,7 +2316,7 @@
         <v>43101</v>
       </c>
       <c r="C196">
-        <v>-0.1011034930575416</v>
+        <v>0.01256392542505758</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>43191</v>
       </c>
       <c r="C197">
-        <v>1.393766623875314</v>
+        <v>0.7463037450539112</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>43282</v>
       </c>
       <c r="C198">
-        <v>0.05215375100795505</v>
+        <v>0.3975094266358115</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>43374</v>
       </c>
       <c r="C199">
-        <v>0.1141117938107783</v>
+        <v>0.2606602449718443</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>43466</v>
       </c>
       <c r="C200">
-        <v>0.8520752878507842</v>
+        <v>1.051370020239295</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>43556</v>
       </c>
       <c r="C201">
-        <v>0.1670499922374002</v>
+        <v>0.1930920272914749</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>43647</v>
       </c>
       <c r="C202">
-        <v>0.3828638707451315</v>
+        <v>-0.1185853501144862</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>43739</v>
       </c>
       <c r="C203">
-        <v>-0.3343998670259585</v>
+        <v>-0.36289444489358</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>43831</v>
       </c>
       <c r="C204">
-        <v>-1.397899412763925</v>
+        <v>-0.5106194826582922</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2397,7 +2397,7 @@
         <v>43922</v>
       </c>
       <c r="C205">
-        <v>-4.140248322137818</v>
+        <v>-4.066880721027511</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>44013</v>
       </c>
       <c r="C206">
-        <v>3.885964251218055</v>
+        <v>2.484956031926866</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2415,7 +2415,7 @@
         <v>44105</v>
       </c>
       <c r="C207">
-        <v>-0.4736673130059099</v>
+        <v>-0.363893496223</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>44197</v>
       </c>
       <c r="C208">
-        <v>0.655336438875298</v>
+        <v>0.6549954785490364</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>44287</v>
       </c>
       <c r="C209">
-        <v>1.755306456673633</v>
+        <v>2.356931347344182</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>42917</v>
       </c>
       <c r="C210">
-        <v>0.7373533826154466</v>
+        <v>0.7849691413681859</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>43009</v>
       </c>
       <c r="C211">
-        <v>0.9148377479399672</v>
+        <v>0.9137644572972503</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>43101</v>
       </c>
       <c r="C212">
-        <v>0.5295236557959715</v>
+        <v>0.3922072172230839</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>43191</v>
       </c>
       <c r="C213">
-        <v>0.4973709290432726</v>
+        <v>0.8822745686619005</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2480,7 +2480,7 @@
         <v>43282</v>
       </c>
       <c r="C214">
-        <v>0.7514166268201672</v>
+        <v>0.3641608905472715</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>43374</v>
       </c>
       <c r="C215">
-        <v>0.3339534531196175</v>
+        <v>0.3903862430259197</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>43466</v>
       </c>
       <c r="C216">
-        <v>0.3255997154323342</v>
+        <v>0.168115481227793</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>43556</v>
       </c>
       <c r="C217">
-        <v>-0.08998243344169321</v>
+        <v>0.03822836099891536</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>43647</v>
       </c>
       <c r="C218">
-        <v>0.2627558260991592</v>
+        <v>0.1422684122281082</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2525,7 +2525,7 @@
         <v>43739</v>
       </c>
       <c r="C219">
-        <v>0.4379314071682572</v>
+        <v>0.622553454555419</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>43831</v>
       </c>
       <c r="C220">
-        <v>-6.486668815102881</v>
+        <v>-6.251417180635266</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>43922</v>
       </c>
       <c r="C221">
-        <v>-10.86724284077029</v>
+        <v>-10.41580966637109</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2552,7 +2552,7 @@
         <v>44013</v>
       </c>
       <c r="C222">
-        <v>16.2417543863381</v>
+        <v>15.51702629052005</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>44105</v>
       </c>
       <c r="C223">
-        <v>-2.807296729369846</v>
+        <v>-2.653565408828051</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>44197</v>
       </c>
       <c r="C224">
-        <v>-0.1508048593962918</v>
+        <v>0.7038111367093869</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2579,7 +2579,7 @@
         <v>44287</v>
       </c>
       <c r="C225">
-        <v>-6.528311397340292</v>
+        <v>-6.276652148245166</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2590,7 +2590,7 @@
         <v>42917</v>
       </c>
       <c r="C226">
-        <v>0.5143777362204505</v>
+        <v>-0.04188413748882347</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>43009</v>
       </c>
       <c r="C227">
-        <v>0.9875952865361581</v>
+        <v>1.101810592078478</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>43101</v>
       </c>
       <c r="C228">
-        <v>0.5820802845061701</v>
+        <v>0.5505282536665934</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>43191</v>
       </c>
       <c r="C229">
-        <v>0.6450356315804706</v>
+        <v>0.6524656550987551</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>43282</v>
       </c>
       <c r="C230">
-        <v>0.5298890375530219</v>
+        <v>0.7123215174465125</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2635,7 +2635,7 @@
         <v>43374</v>
       </c>
       <c r="C231">
-        <v>0.8114782807832732</v>
+        <v>0.401529733673156</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>43466</v>
       </c>
       <c r="C232">
-        <v>0.2464523181111344</v>
+        <v>0.4674405729186759</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>43556</v>
       </c>
       <c r="C233">
-        <v>-0.2378367841304185</v>
+        <v>0.007521977322788587</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>43647</v>
       </c>
       <c r="C234">
-        <v>-0.1764163449400669</v>
+        <v>-0.5771463597693205</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>43739</v>
       </c>
       <c r="C235">
-        <v>-0.4229982999102266</v>
+        <v>-0.1027569330743661</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-3.604008999512998</v>
+        <v>-3.256592575270656</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-7.835632767450617</v>
+        <v>-8.334822033236012</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>7.437456026306721</v>
+        <v>7.917059679877503</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>-1.193280872152824</v>
+        <v>-1.330018122100041</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>-0.07419183623813552</v>
+        <v>0.5860741293528537</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>-2.446562408834352</v>
+        <v>-2.638471831682354</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>42917</v>
       </c>
       <c r="C242">
-        <v>-0.3526264797085843</v>
+        <v>0.6283584711909374</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2745,7 +2745,7 @@
         <v>43009</v>
       </c>
       <c r="C243">
-        <v>0.2522468520596011</v>
+        <v>0.8652824178414953</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>43101</v>
       </c>
       <c r="C244">
-        <v>-0.03665643313306433</v>
+        <v>-0.3344784102116138</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>43191</v>
       </c>
       <c r="C245">
-        <v>2.667443338061082</v>
+        <v>3.41685847090345</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>43282</v>
       </c>
       <c r="C246">
-        <v>-0.1344007622347321</v>
+        <v>-0.4249768207175264</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>43374</v>
       </c>
       <c r="C247">
-        <v>0.4505871843160092</v>
+        <v>-0.4391701874269072</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>43466</v>
       </c>
       <c r="C248">
-        <v>-0.0007193266566396517</v>
+        <v>0.6608494200058601</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>43556</v>
       </c>
       <c r="C249">
-        <v>-1.602059686904744</v>
+        <v>-1.116418075394221</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>43647</v>
       </c>
       <c r="C250">
-        <v>1.334816320462862</v>
+        <v>-0.204964568323085</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>43739</v>
       </c>
       <c r="C251">
-        <v>0.3070910801745486</v>
+        <v>1.640881705760311</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>43831</v>
       </c>
       <c r="C252">
-        <v>-4.215932237722686</v>
+        <v>-4.426792659158352</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2835,7 +2835,7 @@
         <v>43922</v>
       </c>
       <c r="C253">
-        <v>-8.713999907914349</v>
+        <v>-9.146393516543794</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2844,7 +2844,7 @@
         <v>44013</v>
       </c>
       <c r="C254">
-        <v>5.158108664151961</v>
+        <v>6.089012590834697</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>44105</v>
       </c>
       <c r="C255">
-        <v>0.7457671924336218</v>
+        <v>0.7684724877768501</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>44197</v>
       </c>
       <c r="C256">
-        <v>7.187366561446429</v>
+        <v>5.660137392382136</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>44287</v>
       </c>
       <c r="C257">
-        <v>-6.735227786966469</v>
+        <v>-5.925307374377054</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>42917</v>
       </c>
       <c r="C258">
-        <v>0.3621905686582938</v>
+        <v>0.7360142427839111</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>43009</v>
       </c>
       <c r="C259">
-        <v>0.9863416690736093</v>
+        <v>0.7751789220754812</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>43101</v>
       </c>
       <c r="C260">
-        <v>0.7326833173973979</v>
+        <v>0.6940004598997573</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>43191</v>
       </c>
       <c r="C261">
-        <v>1.884254184062084</v>
+        <v>2.115301306844253</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>43282</v>
       </c>
       <c r="C262">
-        <v>0.8205813504707171</v>
+        <v>0.2559704221088976</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>43374</v>
       </c>
       <c r="C263">
-        <v>1.120136545064465</v>
+        <v>1.245518473760199</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2936,7 +2936,7 @@
         <v>43466</v>
       </c>
       <c r="C264">
-        <v>1.740956956942674</v>
+        <v>1.536612667118509</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2945,7 +2945,7 @@
         <v>43556</v>
       </c>
       <c r="C265">
-        <v>0.9411294279704219</v>
+        <v>1.517093746127807</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43647</v>
       </c>
       <c r="C266">
-        <v>0.3639941745534614</v>
+        <v>-0.5438792053453767</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43739</v>
       </c>
       <c r="C267">
-        <v>1.198809855739391</v>
+        <v>2.337563007986887</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>43831</v>
       </c>
       <c r="C268">
-        <v>-3.268177783458615</v>
+        <v>-2.900279996659949</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>43922</v>
       </c>
       <c r="C269">
-        <v>-7.692963370023809</v>
+        <v>-7.465127933800819</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44013</v>
       </c>
       <c r="C270">
-        <v>7.875547108851011</v>
+        <v>5.830992532494284</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44105</v>
       </c>
       <c r="C271">
-        <v>-1.661234891382135</v>
+        <v>-0.3664038612175236</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>44197</v>
       </c>
       <c r="C272">
-        <v>4.448553477488648</v>
+        <v>4.835876126508665</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>44287</v>
       </c>
       <c r="C273">
-        <v>-5.958438900446605</v>
+        <v>-7.437483101030185</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>42917</v>
       </c>
       <c r="C274">
-        <v>2.050056217353746</v>
+        <v>2.957501417218866</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>43009</v>
       </c>
       <c r="C275">
-        <v>5.113328515501769</v>
+        <v>6.407735219156319</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>43101</v>
       </c>
       <c r="C276">
-        <v>-4.371617318339993</v>
+        <v>-6.53931975267148</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>43191</v>
       </c>
       <c r="C277">
-        <v>3.654842492690524</v>
+        <v>2.827687731559569</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>43282</v>
       </c>
       <c r="C278">
-        <v>-0.3320892769076655</v>
+        <v>2.505052061919821</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>43374</v>
       </c>
       <c r="C279">
-        <v>-0.3666437665707512</v>
+        <v>2.698651472365765</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>43466</v>
       </c>
       <c r="C280">
-        <v>0.5863567094658073</v>
+        <v>-2.251378247557645</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>43556</v>
       </c>
       <c r="C281">
-        <v>-2.406254837763211</v>
+        <v>1.52696834298649</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>43647</v>
       </c>
       <c r="C282">
-        <v>0.2722935916822156</v>
+        <v>-3.157429830446756</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43739</v>
       </c>
       <c r="C283">
-        <v>6.027418005253771</v>
+        <v>5.262994249230402</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>43831</v>
       </c>
       <c r="C284">
-        <v>-4.878550314191521</v>
+        <v>-4.834968124440064</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>43922</v>
       </c>
       <c r="C285">
-        <v>-6.215622146121557</v>
+        <v>-9.59032259745336</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>44013</v>
       </c>
       <c r="C286">
-        <v>1.65934861447159</v>
+        <v>4.669164596594788</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>44105</v>
       </c>
       <c r="C287">
-        <v>4.047449849795326</v>
+        <v>2.156425377482418</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3154,7 +3154,7 @@
         <v>44197</v>
       </c>
       <c r="C288">
-        <v>-0.6480135396382369</v>
+        <v>1.017920041666653</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>44287</v>
       </c>
       <c r="C289">
-        <v>0.9969325227001224</v>
+        <v>2.870873907031757</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>42917</v>
       </c>
       <c r="C290">
-        <v>0.8564329978914653</v>
+        <v>0.7710106441253251</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>43009</v>
       </c>
       <c r="C291">
-        <v>1.960591446993409</v>
+        <v>2.002396019235264</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>43101</v>
       </c>
       <c r="C292">
-        <v>1.181437646492944</v>
+        <v>0.6946525172467632</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>43191</v>
       </c>
       <c r="C293">
-        <v>1.652779810048233</v>
+        <v>2.46657881669623</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>43282</v>
       </c>
       <c r="C294">
-        <v>0.8661863504670908</v>
+        <v>0.4777357520868497</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43374</v>
       </c>
       <c r="C295">
-        <v>1.934192111070043</v>
+        <v>2.470766809053893</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>43466</v>
       </c>
       <c r="C296">
-        <v>1.600674509369426</v>
+        <v>1.021903692885662</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>43556</v>
       </c>
       <c r="C297">
-        <v>0.7954863105922083</v>
+        <v>0.896858735086159</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>43647</v>
       </c>
       <c r="C298">
-        <v>0.3635623295650259</v>
+        <v>0.5745950783202725</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3255,7 +3255,7 @@
         <v>43739</v>
       </c>
       <c r="C299">
-        <v>0.9223700660532685</v>
+        <v>0.7078459916078916</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3264,7 +3264,7 @@
         <v>43831</v>
       </c>
       <c r="C300">
-        <v>-2.0418179700187</v>
+        <v>-2.106941969912224</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>43922</v>
       </c>
       <c r="C301">
-        <v>-16.75352396457479</v>
+        <v>-17.31963180016399</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>44013</v>
       </c>
       <c r="C302">
-        <v>15.78131073215705</v>
+        <v>16.55944405386522</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>44105</v>
       </c>
       <c r="C303">
-        <v>6.587111605341933</v>
+        <v>6.919968949388555</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>44197</v>
       </c>
       <c r="C304">
-        <v>4.683619717994003</v>
+        <v>4.227964634563697</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>44287</v>
       </c>
       <c r="C305">
-        <v>-22.36556028523665</v>
+        <v>-22.19868547874509</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>42917</v>
       </c>
       <c r="C306">
-        <v>-2.750845048357697</v>
+        <v>-2.343483414334102</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>43009</v>
       </c>
       <c r="C307">
-        <v>1.339244276164187</v>
+        <v>1.168255699139298</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>43101</v>
       </c>
       <c r="C308">
-        <v>1.71959112522091</v>
+        <v>1.82052984548251</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>43191</v>
       </c>
       <c r="C309">
-        <v>2.438433907473625</v>
+        <v>2.291738133495325</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>43282</v>
       </c>
       <c r="C310">
-        <v>0.07971630386949258</v>
+        <v>0.2113824844857115</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>43374</v>
       </c>
       <c r="C311">
-        <v>1.570439058102857</v>
+        <v>1.151988767367729</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3374,7 +3374,7 @@
         <v>43466</v>
       </c>
       <c r="C312">
-        <v>0.4877425154569126</v>
+        <v>0.577567682713731</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>43556</v>
       </c>
       <c r="C313">
-        <v>1.64372868211089</v>
+        <v>1.876686254496263</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>43647</v>
       </c>
       <c r="C314">
-        <v>0.6737567221290153</v>
+        <v>0.03624239543005281</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>43739</v>
       </c>
       <c r="C315">
-        <v>0.2645709685495712</v>
+        <v>0.7140779500986794</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>43831</v>
       </c>
       <c r="C316">
-        <v>0.1333375365353939</v>
+        <v>0.02850187684213523</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>43922</v>
       </c>
       <c r="C317">
-        <v>-8.230946160685281</v>
+        <v>-8.248681143638503</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>44013</v>
       </c>
       <c r="C318">
-        <v>4.724306230271846</v>
+        <v>5.175186930922737</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3437,7 +3437,7 @@
         <v>44105</v>
       </c>
       <c r="C319">
-        <v>2.120321779196055</v>
+        <v>1.527928775498322</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>44197</v>
       </c>
       <c r="C320">
-        <v>2.954258072657345</v>
+        <v>3.76026645183829</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>44287</v>
       </c>
       <c r="C321">
-        <v>1.13780721722927</v>
+        <v>1.132004340982951</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>42917</v>
       </c>
       <c r="C322">
-        <v>0.7494210110671418</v>
+        <v>-0.3059405604985965</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>43009</v>
       </c>
       <c r="C323">
-        <v>15.12659865332184</v>
+        <v>14.5970706244769</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3484,7 +3484,7 @@
         <v>43101</v>
       </c>
       <c r="C324">
-        <v>-6.45374647433703</v>
+        <v>-5.754802609248333</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3493,7 +3493,7 @@
         <v>43191</v>
       </c>
       <c r="C325">
-        <v>3.185297110837504</v>
+        <v>1.996165287999752</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>43282</v>
       </c>
       <c r="C326">
-        <v>3.567655900280498</v>
+        <v>3.935505710630904</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>43374</v>
       </c>
       <c r="C327">
-        <v>4.724457361185763</v>
+        <v>4.977102377700104</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>43466</v>
       </c>
       <c r="C328">
-        <v>-1.020443665289528</v>
+        <v>-1.298522743423314</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>43556</v>
       </c>
       <c r="C329">
-        <v>2.856790014740129</v>
+        <v>3.192102625864823</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>43647</v>
       </c>
       <c r="C330">
-        <v>0.4256875675334504</v>
+        <v>0.2941808361990761</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -3547,7 +3547,7 @@
         <v>43739</v>
       </c>
       <c r="C331">
-        <v>1.741826112704636</v>
+        <v>1.950219937151898</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>43831</v>
       </c>
       <c r="C332">
-        <v>-4.905316790499093</v>
+        <v>-5.949623133401816</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>43922</v>
       </c>
       <c r="C333">
-        <v>-5.717818571353162</v>
+        <v>-3.615936015804211</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -3574,7 +3574,7 @@
         <v>44013</v>
       </c>
       <c r="C334">
-        <v>9.446475641192077</v>
+        <v>8.127192842724495</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -3583,7 +3583,7 @@
         <v>44105</v>
       </c>
       <c r="C335">
-        <v>2.534316213409737</v>
+        <v>4.404371891534553</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -3592,7 +3592,7 @@
         <v>44197</v>
       </c>
       <c r="C336">
-        <v>-1.943576350701559</v>
+        <v>0.08768039135749195</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>44287</v>
       </c>
       <c r="C337">
-        <v>9.60854956541084</v>
+        <v>9.632868723543563</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>42917</v>
       </c>
       <c r="C338">
-        <v>1.729457487684716</v>
+        <v>1.707726630029982</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>43009</v>
       </c>
       <c r="C339">
-        <v>1.00131882554868</v>
+        <v>1.100903109518003</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>43101</v>
       </c>
       <c r="C340">
-        <v>-0.2362353472800782</v>
+        <v>-0.6130027920437708</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>43191</v>
       </c>
       <c r="C341">
-        <v>1.78432800767212</v>
+        <v>1.160048664499991</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -3648,7 +3648,7 @@
         <v>43282</v>
       </c>
       <c r="C342">
-        <v>1.579284734040698</v>
+        <v>1.867545861692244</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -3657,7 +3657,7 @@
         <v>43374</v>
       </c>
       <c r="C343">
-        <v>0.4969533309054031</v>
+        <v>0.4730091847020113</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>43466</v>
       </c>
       <c r="C344">
-        <v>1.076699431097361</v>
+        <v>0.4623594925123209</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>43556</v>
       </c>
       <c r="C345">
-        <v>-0.7349776156436949</v>
+        <v>0.6714006577741793</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -3684,7 +3684,7 @@
         <v>43647</v>
       </c>
       <c r="C346">
-        <v>1.333804786143822</v>
+        <v>1.798083017205654</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -3693,7 +3693,7 @@
         <v>43739</v>
       </c>
       <c r="C347">
-        <v>0.582447519742324</v>
+        <v>-0.02462573668566836</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -3702,7 +3702,7 @@
         <v>43831</v>
       </c>
       <c r="C348">
-        <v>-3.178735352289908</v>
+        <v>-3.111328136884994</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>43922</v>
       </c>
       <c r="C349">
-        <v>-5.164704628677952</v>
+        <v>-5.9009091977267</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>44013</v>
       </c>
       <c r="C350">
-        <v>4.423754590123607</v>
+        <v>4.794797242549764</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>44105</v>
       </c>
       <c r="C351">
-        <v>2.476410091093739</v>
+        <v>2.499365660985764</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>44197</v>
       </c>
       <c r="C352">
-        <v>2.570901885190247</v>
+        <v>3.737990481007381</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>44287</v>
       </c>
       <c r="C353">
-        <v>-1.385497408026626</v>
+        <v>-2.823335587485676</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -3758,7 +3758,7 @@
         <v>42917</v>
       </c>
       <c r="C354">
-        <v>0.8466737854885942</v>
+        <v>0.3690670353972969</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -3767,7 +3767,7 @@
         <v>43009</v>
       </c>
       <c r="C355">
-        <v>0.04956160688982525</v>
+        <v>0.03642487232549119</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>43101</v>
       </c>
       <c r="C356">
-        <v>0.280485256875207</v>
+        <v>0.6686931879939406</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>43191</v>
       </c>
       <c r="C357">
-        <v>0.3531690804347898</v>
+        <v>0.5640481159611799</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -3794,7 +3794,7 @@
         <v>43282</v>
       </c>
       <c r="C358">
-        <v>1.33709153644781</v>
+        <v>0.8729183530956863</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -3803,7 +3803,7 @@
         <v>43374</v>
       </c>
       <c r="C359">
-        <v>0.5455382858139624</v>
+        <v>0.2303071486954522</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -3812,7 +3812,7 @@
         <v>43466</v>
       </c>
       <c r="C360">
-        <v>-1.405371849055981</v>
+        <v>-1.124371023634818</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>43556</v>
       </c>
       <c r="C361">
-        <v>-0.09456875352538141</v>
+        <v>0.1548505406752776</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>43647</v>
       </c>
       <c r="C362">
-        <v>-0.02563466154010818</v>
+        <v>-0.2998371569201019</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>43739</v>
       </c>
       <c r="C363">
-        <v>-0.2035732108253585</v>
+        <v>0.2560971151229774</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -3848,7 +3848,7 @@
         <v>43831</v>
       </c>
       <c r="C364">
-        <v>-8.834359660398173</v>
+        <v>-8.795200413482773</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -3857,7 +3857,7 @@
         <v>43922</v>
       </c>
       <c r="C365">
-        <v>-9.449421811762814</v>
+        <v>-9.376212242589975</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>44013</v>
       </c>
       <c r="C366">
-        <v>16.15931957106325</v>
+        <v>15.50839028934135</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>44105</v>
       </c>
       <c r="C367">
-        <v>-4.35064468813956</v>
+        <v>-3.822912812672208</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>44197</v>
       </c>
       <c r="C368">
-        <v>3.388152837652902</v>
+        <v>4.391290469331288</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -3893,7 +3893,7 @@
         <v>44287</v>
       </c>
       <c r="C369">
-        <v>-2.773305417069161</v>
+        <v>-2.355346421976423</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -3904,7 +3904,7 @@
         <v>42917</v>
       </c>
       <c r="C370">
-        <v>0.3592910518547265</v>
+        <v>-0.05569710694912633</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>43009</v>
       </c>
       <c r="C371">
-        <v>0.3973649550298219</v>
+        <v>-0.1213556583023245</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>43101</v>
       </c>
       <c r="C372">
-        <v>0.8544034290770997</v>
+        <v>0.8440985273987733</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>43191</v>
       </c>
       <c r="C373">
-        <v>-0.03091401481810641</v>
+        <v>-0.1198488522711871</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>43282</v>
       </c>
       <c r="C374">
-        <v>0.2962788358749968</v>
+        <v>0.8981626596063164</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>43374</v>
       </c>
       <c r="C375">
-        <v>0.2246424316153073</v>
+        <v>-0.1698870369494787</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>43466</v>
       </c>
       <c r="C376">
-        <v>-0.3501639738071827</v>
+        <v>0.03909241286874643</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -3967,7 +3967,7 @@
         <v>43556</v>
       </c>
       <c r="C377">
-        <v>0.3460015707510422</v>
+        <v>0.421013365799805</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>43647</v>
       </c>
       <c r="C378">
-        <v>-0.6591688463558731</v>
+        <v>-1.212946164166218</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>43739</v>
       </c>
       <c r="C379">
-        <v>0.03182157991885592</v>
+        <v>0.7406655121070083</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>43831</v>
       </c>
       <c r="C380">
-        <v>-2.084327969184463</v>
+        <v>-2.211109965368985</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4003,7 +4003,7 @@
         <v>43922</v>
       </c>
       <c r="C381">
-        <v>-7.808482347921164</v>
+        <v>-7.871684252681499</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4012,7 +4012,7 @@
         <v>44013</v>
       </c>
       <c r="C382">
-        <v>5.56928325470385</v>
+        <v>5.090018918642603</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>44105</v>
       </c>
       <c r="C383">
-        <v>0.9049107067109707</v>
+        <v>0.9454957620930626</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>44197</v>
       </c>
       <c r="C384">
-        <v>1.739441625081728</v>
+        <v>1.914147639286856</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>44287</v>
       </c>
       <c r="C385">
-        <v>-0.2540693456233201</v>
+        <v>-1.229178958154742</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>42917</v>
       </c>
       <c r="C386">
-        <v>0.4628280240019045</v>
+        <v>1.343321930093078</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4059,7 +4059,7 @@
         <v>43009</v>
       </c>
       <c r="C387">
-        <v>0.730879595331646</v>
+        <v>-0.1098736365246267</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4068,7 +4068,7 @@
         <v>43101</v>
       </c>
       <c r="C388">
-        <v>0.9868811405693512</v>
+        <v>1.342419047895604</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4077,7 +4077,7 @@
         <v>43191</v>
       </c>
       <c r="C389">
-        <v>0.1255009871053536</v>
+        <v>0.04967548602914373</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>43282</v>
       </c>
       <c r="C390">
-        <v>2.571558778584659</v>
+        <v>2.750613785067868</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>43374</v>
       </c>
       <c r="C391">
-        <v>-0.8151924509413822</v>
+        <v>-0.5312774732305403</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>43466</v>
       </c>
       <c r="C392">
-        <v>0.9275915379858057</v>
+        <v>-0.1542353705514588</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4113,7 +4113,7 @@
         <v>43556</v>
       </c>
       <c r="C393">
-        <v>-0.7301282014611998</v>
+        <v>0.5607428312581542</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4122,7 +4122,7 @@
         <v>43647</v>
       </c>
       <c r="C394">
-        <v>0.3039356114196368</v>
+        <v>0.3080102696055853</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4131,7 +4131,7 @@
         <v>43739</v>
       </c>
       <c r="C395">
-        <v>1.66427955608679</v>
+        <v>1.176890443799317</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>43831</v>
       </c>
       <c r="C396">
-        <v>-0.300706391551897</v>
+        <v>-1.111909127450794</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>43922</v>
       </c>
       <c r="C397">
-        <v>-2.700806285353829</v>
+        <v>-2.315861313490941</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4158,7 +4158,7 @@
         <v>44013</v>
       </c>
       <c r="C398">
-        <v>1.792025532597386</v>
+        <v>2.178456005872342</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>44105</v>
       </c>
       <c r="C399">
-        <v>0.79112585333454</v>
+        <v>1.035863464410158</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4176,7 +4176,7 @@
         <v>44197</v>
       </c>
       <c r="C400">
-        <v>2.180579837070651</v>
+        <v>2.772031515154882</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>44287</v>
       </c>
       <c r="C401">
-        <v>-0.4909995959800351</v>
+        <v>-0.7083257957998579</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>42917</v>
       </c>
       <c r="C402">
-        <v>-3.509044387983107</v>
+        <v>-3.459490157589873</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>43009</v>
       </c>
       <c r="C403">
-        <v>1.281107251970481</v>
+        <v>1.471245413110678</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>43101</v>
       </c>
       <c r="C404">
-        <v>1.13389708001721</v>
+        <v>1.213467266870549</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4223,7 +4223,7 @@
         <v>43191</v>
       </c>
       <c r="C405">
-        <v>0.7246543258138782</v>
+        <v>1.247153511299426</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4232,7 +4232,7 @@
         <v>43282</v>
       </c>
       <c r="C406">
-        <v>1.134412525105621</v>
+        <v>-0.2926863933867208</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>43374</v>
       </c>
       <c r="C407">
-        <v>0.5546541661295201</v>
+        <v>1.066758979969396</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>43466</v>
       </c>
       <c r="C408">
-        <v>-1.360215173179702</v>
+        <v>-1.28954566785604</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>43556</v>
       </c>
       <c r="C409">
-        <v>2.52918925460115</v>
+        <v>2.855828230948276</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4268,7 +4268,7 @@
         <v>43647</v>
       </c>
       <c r="C410">
-        <v>2.15239566994756</v>
+        <v>1.554370908848579</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4277,7 +4277,7 @@
         <v>43739</v>
       </c>
       <c r="C411">
-        <v>-1.013775827818097</v>
+        <v>-0.4706480310043171</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4286,7 +4286,7 @@
         <v>43831</v>
       </c>
       <c r="C412">
-        <v>-2.931474822745861</v>
+        <v>-2.126536606305662</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4295,7 +4295,7 @@
         <v>43922</v>
       </c>
       <c r="C413">
-        <v>-7.034513555747413</v>
+        <v>-7.299213990292031</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>44013</v>
       </c>
       <c r="C414">
-        <v>5.089434887571342</v>
+        <v>6.580335335298582</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>44105</v>
       </c>
       <c r="C415">
-        <v>-1.768487862349122</v>
+        <v>-2.971268697513274</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4322,7 +4322,7 @@
         <v>44197</v>
       </c>
       <c r="C416">
-        <v>1.964361466423714</v>
+        <v>1.52890845439928</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4331,7 +4331,7 @@
         <v>44287</v>
       </c>
       <c r="C417">
-        <v>-0.8411910178812931</v>
+        <v>1.142295088168122</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4342,7 +4342,7 @@
         <v>42917</v>
       </c>
       <c r="C418">
-        <v>0.2360556825944826</v>
+        <v>-1.163501712386861</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4351,7 +4351,7 @@
         <v>43009</v>
       </c>
       <c r="C419">
-        <v>1.083005296027162</v>
+        <v>2.117731592899053</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>43101</v>
       </c>
       <c r="C420">
-        <v>0.8273111661282417</v>
+        <v>0.4304639493463602</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>43191</v>
       </c>
       <c r="C421">
-        <v>1.044075955637447</v>
+        <v>1.217553653371772</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4378,7 +4378,7 @@
         <v>43282</v>
       </c>
       <c r="C422">
-        <v>1.191814377249223</v>
+        <v>1.276061813784746</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>43374</v>
       </c>
       <c r="C423">
-        <v>1.414679562051657</v>
+        <v>-0.1326312180998102</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>43466</v>
       </c>
       <c r="C424">
-        <v>0.8020743600408053</v>
+        <v>1.85187546033756</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -4405,7 +4405,7 @@
         <v>43556</v>
       </c>
       <c r="C425">
-        <v>0.1584742810982753</v>
+        <v>-0.4427436255458383</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>43647</v>
       </c>
       <c r="C426">
-        <v>1.024858435747777</v>
+        <v>0.2032374047234109</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>43739</v>
       </c>
       <c r="C427">
-        <v>-0.4680221076478475</v>
+        <v>2.020991029728281</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>43831</v>
       </c>
       <c r="C428">
-        <v>-1.685440535698923</v>
+        <v>-3.961226695614495</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -4441,7 +4441,7 @@
         <v>43922</v>
       </c>
       <c r="C429">
-        <v>-3.334529909362749</v>
+        <v>-2.200331942247291</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>44013</v>
       </c>
       <c r="C430">
-        <v>5.792496533175395</v>
+        <v>5.807984370273966</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -4459,7 +4459,7 @@
         <v>44105</v>
       </c>
       <c r="C431">
-        <v>0.4299338791959206</v>
+        <v>-0.08996016627259573</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>44197</v>
       </c>
       <c r="C432">
-        <v>2.720878088343492</v>
+        <v>3.513105855345344</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -4477,7 +4477,7 @@
         <v>44287</v>
       </c>
       <c r="C433">
-        <v>-2.375062741895162</v>
+        <v>-2.267207302800422</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -4488,7 +4488,7 @@
         <v>42917</v>
       </c>
       <c r="C434">
-        <v>3.187750705060921</v>
+        <v>3.933687333403113</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -4497,7 +4497,7 @@
         <v>43009</v>
       </c>
       <c r="C435">
-        <v>1.015489576629269</v>
+        <v>2.20287817907372</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -4506,7 +4506,7 @@
         <v>43101</v>
       </c>
       <c r="C436">
-        <v>-2.492936228418485</v>
+        <v>-1.54865204086756</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>43191</v>
       </c>
       <c r="C437">
-        <v>1.315994792097075</v>
+        <v>-0.1191585234113779</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>43282</v>
       </c>
       <c r="C438">
-        <v>0.9974760751166878</v>
+        <v>0.04918284690300645</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>43374</v>
       </c>
       <c r="C439">
-        <v>0.3470834987121973</v>
+        <v>1.178860092061562</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -4542,7 +4542,7 @@
         <v>43466</v>
       </c>
       <c r="C440">
-        <v>1.687863899580955</v>
+        <v>0.06035097222123476</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>43556</v>
       </c>
       <c r="C441">
-        <v>-0.4606468503943972</v>
+        <v>0.2569621547780399</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -4560,7 +4560,7 @@
         <v>43647</v>
       </c>
       <c r="C442">
-        <v>-0.6192033329890712</v>
+        <v>-0.8363329072743841</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -4569,7 +4569,7 @@
         <v>43739</v>
       </c>
       <c r="C443">
-        <v>2.198494983732768</v>
+        <v>3.757522941810221</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>43831</v>
       </c>
       <c r="C444">
-        <v>-6.288805366861927</v>
+        <v>-8.932534114943035</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -4587,7 +4587,7 @@
         <v>43922</v>
       </c>
       <c r="C445">
-        <v>-5.960129899946686</v>
+        <v>-3.723422930859865</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>44013</v>
       </c>
       <c r="C446">
-        <v>9.902744263529906</v>
+        <v>8.827950630437599</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -4605,7 +4605,7 @@
         <v>44105</v>
       </c>
       <c r="C447">
-        <v>-1.043891415833098</v>
+        <v>-0.9823120604440128</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -4614,7 +4614,7 @@
         <v>44197</v>
       </c>
       <c r="C448">
-        <v>3.995901429770621</v>
+        <v>5.531077400852591</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>44287</v>
       </c>
       <c r="C449">
-        <v>1.252420859813586</v>
+        <v>1.971252539537227</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -4634,7 +4634,7 @@
         <v>42917</v>
       </c>
       <c r="C450">
-        <v>0.8535393063205499</v>
+        <v>0.9737259307676549</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>43009</v>
       </c>
       <c r="C451">
-        <v>1.605300639914642</v>
+        <v>1.516207777591139</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -4652,7 +4652,7 @@
         <v>43101</v>
       </c>
       <c r="C452">
-        <v>0.6027102262659678</v>
+        <v>1.089648219872319</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>43191</v>
       </c>
       <c r="C453">
-        <v>-0.2789073678653331</v>
+        <v>-0.2722563690859103</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -4670,7 +4670,7 @@
         <v>43282</v>
       </c>
       <c r="C454">
-        <v>-0.517728501224668</v>
+        <v>-0.6178587748456477</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>43374</v>
       </c>
       <c r="C455">
-        <v>1.32117965674956</v>
+        <v>1.095345357222888</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>43466</v>
       </c>
       <c r="C456">
-        <v>0.3067096135449088</v>
+        <v>-0.03455860248180453</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -4697,7 +4697,7 @@
         <v>43556</v>
       </c>
       <c r="C457">
-        <v>0.732053316136172</v>
+        <v>0.9338703562819184</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>43647</v>
       </c>
       <c r="C458">
-        <v>-0.217140222654677</v>
+        <v>-0.3140405426998338</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>43739</v>
       </c>
       <c r="C459">
-        <v>-1.310234733723403</v>
+        <v>-0.8416513033729811</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -4724,7 +4724,7 @@
         <v>43831</v>
       </c>
       <c r="C460">
-        <v>-2.059167770325143</v>
+        <v>-2.490224092770787</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -4733,7 +4733,7 @@
         <v>43922</v>
       </c>
       <c r="C461">
-        <v>-12.85038127275809</v>
+        <v>-12.66461793686435</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>44013</v>
       </c>
       <c r="C462">
-        <v>8.751425431730064</v>
+        <v>9.246426036540466</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -4751,7 +4751,7 @@
         <v>44105</v>
       </c>
       <c r="C463">
-        <v>2.28526875485191</v>
+        <v>1.766739889323343</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -4760,7 +4760,7 @@
         <v>44197</v>
       </c>
       <c r="C464">
-        <v>2.418058663807643</v>
+        <v>2.50155644178196</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -4769,7 +4769,7 @@
         <v>44287</v>
       </c>
       <c r="C465">
-        <v>-7.816307427705704</v>
+        <v>-7.999971304994946</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -4780,7 +4780,7 @@
         <v>42917</v>
       </c>
       <c r="C466">
-        <v>2.012725176343078</v>
+        <v>2.109301161101618</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -4789,7 +4789,7 @@
         <v>43009</v>
       </c>
       <c r="C467">
-        <v>0.4216342969720843</v>
+        <v>0.4026834937039814</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>43101</v>
       </c>
       <c r="C468">
-        <v>0.4355918753668142</v>
+        <v>0.07120246868626001</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -4807,7 +4807,7 @@
         <v>43191</v>
       </c>
       <c r="C469">
-        <v>0.9773011515618935</v>
+        <v>0.7893881962967031</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>43282</v>
       </c>
       <c r="C470">
-        <v>-0.485141187815874</v>
+        <v>0.2599800854849121</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>43374</v>
       </c>
       <c r="C471">
-        <v>0.8553910467625991</v>
+        <v>1.011273873126628</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -4834,7 +4834,7 @@
         <v>43466</v>
       </c>
       <c r="C472">
-        <v>0.546345699381745</v>
+        <v>0.4678483857128102</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>43556</v>
       </c>
       <c r="C473">
-        <v>0.7732977908792682</v>
+        <v>0.168300597773885</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>43647</v>
       </c>
       <c r="C474">
-        <v>0.5512507447596793</v>
+        <v>0.5524732682716582</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -4861,7 +4861,7 @@
         <v>43739</v>
       </c>
       <c r="C475">
-        <v>0.2137946333020224</v>
+        <v>0.5160609008034722</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -4870,7 +4870,7 @@
         <v>43831</v>
       </c>
       <c r="C476">
-        <v>-2.886061624842107</v>
+        <v>-2.559840192993812</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>43922</v>
       </c>
       <c r="C477">
-        <v>-5.804230294967939</v>
+        <v>-5.914959038505985</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>44013</v>
       </c>
       <c r="C478">
-        <v>5.827590997834187</v>
+        <v>5.375446752597046</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>44105</v>
       </c>
       <c r="C479">
-        <v>-1.146526581072138</v>
+        <v>-0.2512567263980303</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -4906,7 +4906,7 @@
         <v>44197</v>
       </c>
       <c r="C480">
-        <v>1.449813603967942</v>
+        <v>1.990168330331543</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>44287</v>
       </c>
       <c r="C481">
-        <v>-1.592464163939289</v>
+        <v>-1.851676110968192</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -4926,7 +4926,7 @@
         <v>42917</v>
       </c>
       <c r="C482">
-        <v>0.7515315371242393</v>
+        <v>0.3874226685791404</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -4935,7 +4935,7 @@
         <v>43009</v>
       </c>
       <c r="C483">
-        <v>1.367410369782673</v>
+        <v>1.146435752002684</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -4944,7 +4944,7 @@
         <v>43101</v>
       </c>
       <c r="C484">
-        <v>0.6372982659411885</v>
+        <v>1.015479124651009</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>43191</v>
       </c>
       <c r="C485">
-        <v>0.8745797907491193</v>
+        <v>0.7600884139517206</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>43282</v>
       </c>
       <c r="C486">
-        <v>1.163678453057404</v>
+        <v>0.9131597720532403</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -4971,7 +4971,7 @@
         <v>43374</v>
       </c>
       <c r="C487">
-        <v>0.6199623184546255</v>
+        <v>1.685522853478472</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -4980,7 +4980,7 @@
         <v>43466</v>
       </c>
       <c r="C488">
-        <v>0.1609895710807496</v>
+        <v>-0.7093902035893662</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>43556</v>
       </c>
       <c r="C489">
-        <v>1.525622773934709</v>
+        <v>1.92951866283233</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>43647</v>
       </c>
       <c r="C490">
-        <v>0.08387135213796526</v>
+        <v>0.9935879688979021</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5007,7 +5007,7 @@
         <v>43739</v>
       </c>
       <c r="C491">
-        <v>0.9207208240177955</v>
+        <v>-0.09600929400904734</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5016,7 +5016,7 @@
         <v>43831</v>
       </c>
       <c r="C492">
-        <v>-3.161376670155236</v>
+        <v>-2.992586882112491</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>43922</v>
       </c>
       <c r="C493">
-        <v>-6.275505055522334</v>
+        <v>-5.460115390412956</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5034,7 +5034,7 @@
         <v>44013</v>
       </c>
       <c r="C494">
-        <v>8.28225447879376</v>
+        <v>6.925882712860898</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5043,7 +5043,7 @@
         <v>44105</v>
       </c>
       <c r="C495">
-        <v>1.765529085968542</v>
+        <v>2.012040340329135</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>44197</v>
       </c>
       <c r="C496">
-        <v>3.279915123763666</v>
+        <v>3.792166411597875</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>44287</v>
       </c>
       <c r="C497">
-        <v>-4.507670085600957</v>
+        <v>-3.670793497973335</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5072,7 +5072,7 @@
         <v>42917</v>
       </c>
       <c r="C498">
-        <v>0.2069014271450342</v>
+        <v>-0.3104869300269542</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5081,7 +5081,7 @@
         <v>43009</v>
       </c>
       <c r="C499">
-        <v>2.186361646046264</v>
+        <v>2.598804739241101</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5090,7 +5090,7 @@
         <v>43101</v>
       </c>
       <c r="C500">
-        <v>-0.2554846730045024</v>
+        <v>0.06840138025869802</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>43191</v>
       </c>
       <c r="C501">
-        <v>1.570493233535908</v>
+        <v>0.7349323346328873</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>43282</v>
       </c>
       <c r="C502">
-        <v>0.09029101626250036</v>
+        <v>0.2182556538441904</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5117,7 +5117,7 @@
         <v>43374</v>
       </c>
       <c r="C503">
-        <v>-0.5964787029318908</v>
+        <v>-0.8336014562153715</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5126,7 +5126,7 @@
         <v>43466</v>
       </c>
       <c r="C504">
-        <v>1.065075137264193</v>
+        <v>1.789860481160188</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>43556</v>
       </c>
       <c r="C505">
-        <v>0.495127659270711</v>
+        <v>0.2445146200434234</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5144,7 +5144,7 @@
         <v>43647</v>
       </c>
       <c r="C506">
-        <v>0.2370358245030513</v>
+        <v>-0.271129634958156</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>43739</v>
       </c>
       <c r="C507">
-        <v>0.3143352047256354</v>
+        <v>0.4393850283081591</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>43831</v>
       </c>
       <c r="C508">
-        <v>-4.083576051317395</v>
+        <v>-4.010957710969332</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>43922</v>
       </c>
       <c r="C509">
-        <v>-2.801589909824553</v>
+        <v>-2.386817579697142</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5180,7 +5180,7 @@
         <v>44013</v>
       </c>
       <c r="C510">
-        <v>2.555993363184217</v>
+        <v>2.583255881042712</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5189,7 +5189,7 @@
         <v>44105</v>
       </c>
       <c r="C511">
-        <v>1.711277979259496</v>
+        <v>0.6433918604560329</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>44197</v>
       </c>
       <c r="C512">
-        <v>1.195398431648931</v>
+        <v>2.536485319908466</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>44287</v>
       </c>
       <c r="C513">
-        <v>-1.346509308075761</v>
+        <v>-2.409203585682984</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>42917</v>
       </c>
       <c r="C514">
-        <v>0.3892507733809669</v>
+        <v>-0.06806768521417927</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -5227,7 +5227,7 @@
         <v>43009</v>
       </c>
       <c r="C515">
-        <v>2.920126095826858</v>
+        <v>2.95643716949674</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>43101</v>
       </c>
       <c r="C516">
-        <v>0.6919530409991825</v>
+        <v>0.2566892482180894</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -5245,7 +5245,7 @@
         <v>43191</v>
       </c>
       <c r="C517">
-        <v>1.424155967026675</v>
+        <v>1.578952166425296</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -5254,7 +5254,7 @@
         <v>43282</v>
       </c>
       <c r="C518">
-        <v>0.7803597370522386</v>
+        <v>0.7289320346176131</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -5263,7 +5263,7 @@
         <v>43374</v>
       </c>
       <c r="C519">
-        <v>1.021123348433339</v>
+        <v>1.344939654085464</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>43466</v>
       </c>
       <c r="C520">
-        <v>1.407831204679155</v>
+        <v>1.806936101973688</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>43556</v>
       </c>
       <c r="C521">
-        <v>0.8827200893170239</v>
+        <v>0.6421902024503323</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -5290,7 +5290,7 @@
         <v>43647</v>
       </c>
       <c r="C522">
-        <v>1.51791042687841</v>
+        <v>1.200670509426782</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -5299,7 +5299,7 @@
         <v>43739</v>
       </c>
       <c r="C523">
-        <v>0.4112110932919633</v>
+        <v>0.6482945090092063</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>43831</v>
       </c>
       <c r="C524">
-        <v>-2.290715895978401</v>
+        <v>-2.71740907467346</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>43922</v>
       </c>
       <c r="C525">
-        <v>-6.694006969045995</v>
+        <v>-6.109860773516596</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -5326,7 +5326,7 @@
         <v>44013</v>
       </c>
       <c r="C526">
-        <v>9.810051515775564</v>
+        <v>9.040955855236078</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -5335,7 +5335,7 @@
         <v>44105</v>
       </c>
       <c r="C527">
-        <v>-3.310514135303821</v>
+        <v>-2.32310056434355</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>44197</v>
       </c>
       <c r="C528">
-        <v>4.799663857597869</v>
+        <v>4.684757137967965</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -5353,7 +5353,7 @@
         <v>44287</v>
       </c>
       <c r="C529">
-        <v>-1.472199093606807</v>
+        <v>-1.12912013988784</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -5364,7 +5364,7 @@
         <v>42917</v>
       </c>
       <c r="C530">
-        <v>0.5686594085546615</v>
+        <v>0.009521240823140431</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -5373,7 +5373,7 @@
         <v>43009</v>
       </c>
       <c r="C531">
-        <v>-0.08738010059182733</v>
+        <v>-0.274556614537913</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>43101</v>
       </c>
       <c r="C532">
-        <v>1.769234748290427</v>
+        <v>1.534617790813941</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>43191</v>
       </c>
       <c r="C533">
-        <v>0.528295678066959</v>
+        <v>0.1637982131258431</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -5400,7 +5400,7 @@
         <v>43282</v>
       </c>
       <c r="C534">
-        <v>-0.09507924656840805</v>
+        <v>-0.1180812122647645</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -5409,7 +5409,7 @@
         <v>43374</v>
       </c>
       <c r="C535">
-        <v>2.148782611726752</v>
+        <v>2.170106246400438</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -5418,7 +5418,7 @@
         <v>43466</v>
       </c>
       <c r="C536">
-        <v>-0.7485538703900896</v>
+        <v>-0.7279048480455574</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>43556</v>
       </c>
       <c r="C537">
-        <v>1.591738312765245</v>
+        <v>1.551375956870626</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -5436,7 +5436,7 @@
         <v>43647</v>
       </c>
       <c r="C538">
-        <v>0.2415687496295726</v>
+        <v>0.658125017882516</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -5445,7 +5445,7 @@
         <v>43739</v>
       </c>
       <c r="C539">
-        <v>-0.4618510387760955</v>
+        <v>0.02967649805458716</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>43831</v>
       </c>
       <c r="C540">
-        <v>-4.450482195499806</v>
+        <v>-4.813288521873083</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -5463,7 +5463,7 @@
         <v>43922</v>
       </c>
       <c r="C541">
-        <v>-12.53489173134097</v>
+        <v>-12.7447355846278</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -5472,7 +5472,7 @@
         <v>44013</v>
       </c>
       <c r="C542">
-        <v>13.38276423781921</v>
+        <v>12.94166126981744</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>44105</v>
       </c>
       <c r="C543">
-        <v>0.01665813853952702</v>
+        <v>0.5582951325024954</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>44197</v>
       </c>
       <c r="C544">
-        <v>-1.031598677744905</v>
+        <v>-0.503313748856582</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -5499,7 +5499,7 @@
         <v>44287</v>
       </c>
       <c r="C545">
-        <v>-1.996932557252706</v>
+        <v>-2.189022603634205</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -5510,7 +5510,7 @@
         <v>42917</v>
       </c>
       <c r="C546">
-        <v>0.3838850761879176</v>
+        <v>0.4919970318481903</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -5519,7 +5519,7 @@
         <v>43009</v>
       </c>
       <c r="C547">
-        <v>1.018344312825326</v>
+        <v>1.47782696206884</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>43101</v>
       </c>
       <c r="C548">
-        <v>1.61243048593176</v>
+        <v>0.9206459241697162</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>43191</v>
       </c>
       <c r="C549">
-        <v>1.97766664333594</v>
+        <v>2.09715893272775</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -5546,7 +5546,7 @@
         <v>43282</v>
       </c>
       <c r="C550">
-        <v>2.127636191606586</v>
+        <v>2.752588631231179</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>43374</v>
       </c>
       <c r="C551">
-        <v>0.04660422648525842</v>
+        <v>0.02378014362887093</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>43466</v>
       </c>
       <c r="C552">
-        <v>0.7554157817571516</v>
+        <v>0.9359575453346425</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -5573,7 +5573,7 @@
         <v>43556</v>
       </c>
       <c r="C553">
-        <v>0.7740721580534293</v>
+        <v>1.075217441175291</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -5582,7 +5582,7 @@
         <v>43647</v>
       </c>
       <c r="C554">
-        <v>1.569715244223335</v>
+        <v>0.7930724454675353</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>43739</v>
       </c>
       <c r="C555">
-        <v>0.09704950916988864</v>
+        <v>0.9774089002957398</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>43831</v>
       </c>
       <c r="C556">
-        <v>-3.415267140157496</v>
+        <v>-3.618418049885408</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -5609,7 +5609,7 @@
         <v>43922</v>
       </c>
       <c r="C557">
-        <v>-7.760909378700087</v>
+        <v>-8.132396692391675</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -5618,7 +5618,7 @@
         <v>44013</v>
       </c>
       <c r="C558">
-        <v>7.765096863017873</v>
+        <v>7.846567236637503</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>44105</v>
       </c>
       <c r="C559">
-        <v>1.585554009080514</v>
+        <v>0.6485172747611401</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>44197</v>
       </c>
       <c r="C560">
-        <v>5.103094918127593</v>
+        <v>6.503688476365688</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -5645,7 +5645,7 @@
         <v>44287</v>
       </c>
       <c r="C561">
-        <v>-3.771452686241383</v>
+        <v>-4.512203244691381</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -5656,7 +5656,7 @@
         <v>42917</v>
       </c>
       <c r="C562">
-        <v>-0.5621811808876886</v>
+        <v>0.3012992183408114</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>43009</v>
       </c>
       <c r="C563">
-        <v>-0.2551648927729411</v>
+        <v>0.01317979652182277</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>43101</v>
       </c>
       <c r="C564">
-        <v>0.2242260609865765</v>
+        <v>-0.598141272950381</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -5683,7 +5683,7 @@
         <v>43191</v>
       </c>
       <c r="C565">
-        <v>0.3663725541228624</v>
+        <v>1.061868585187176</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -5692,7 +5692,7 @@
         <v>43282</v>
       </c>
       <c r="C566">
-        <v>1.13291823079904</v>
+        <v>1.169495137323229</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>43374</v>
       </c>
       <c r="C567">
-        <v>0.2405289037984648</v>
+        <v>0.3300366589336967</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>43466</v>
       </c>
       <c r="C568">
-        <v>0.7754313061269169</v>
+        <v>0.9971923587491327</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -5719,7 +5719,7 @@
         <v>43556</v>
       </c>
       <c r="C569">
-        <v>1.29102355540387</v>
+        <v>1.068772851846433</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -5728,7 +5728,7 @@
         <v>43647</v>
       </c>
       <c r="C570">
-        <v>-0.1256227850244596</v>
+        <v>-0.129649600118209</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>43739</v>
       </c>
       <c r="C571">
-        <v>-0.7653766041319399</v>
+        <v>-0.9346448725901069</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>43831</v>
       </c>
       <c r="C572">
-        <v>-1.929531063283452</v>
+        <v>-1.976439352247172</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -5755,7 +5755,7 @@
         <v>43922</v>
       </c>
       <c r="C573">
-        <v>-5.311367924310506</v>
+        <v>-4.768835214193256</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>44013</v>
       </c>
       <c r="C574">
-        <v>4.838310838897519</v>
+        <v>3.774643134326983</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>44105</v>
       </c>
       <c r="C575">
-        <v>-0.2360034430099134</v>
+        <v>-0.0669904939628041</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -5782,7 +5782,7 @@
         <v>44197</v>
       </c>
       <c r="C576">
-        <v>4.889609828309482</v>
+        <v>4.854412874064717</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -5791,7 +5791,7 @@
         <v>44287</v>
       </c>
       <c r="C577">
-        <v>6.498166301346697</v>
+        <v>6.441236642096571</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -5802,7 +5802,7 @@
         <v>42917</v>
       </c>
       <c r="C578">
-        <v>-0.152131642258424</v>
+        <v>0.2586591743088507</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>43009</v>
       </c>
       <c r="C579">
-        <v>-0.4988688163826915</v>
+        <v>0.5693799080361384</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>43101</v>
       </c>
       <c r="C580">
-        <v>1.187984081159388</v>
+        <v>1.084263301568145</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -5829,7 +5829,7 @@
         <v>43191</v>
       </c>
       <c r="C581">
-        <v>1.211370363755737</v>
+        <v>0.3176531655272985</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -5838,7 +5838,7 @@
         <v>43282</v>
       </c>
       <c r="C582">
-        <v>-0.6376861674707968</v>
+        <v>0.8853718236137897</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>43374</v>
       </c>
       <c r="C583">
-        <v>0.9373431914555752</v>
+        <v>0.6180013789740979</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>43466</v>
       </c>
       <c r="C584">
-        <v>1.171626047769103</v>
+        <v>0.3374102136179946</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -5865,7 +5865,7 @@
         <v>43556</v>
       </c>
       <c r="C585">
-        <v>1.214256984191131</v>
+        <v>2.220936479912816</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -5874,7 +5874,7 @@
         <v>43647</v>
       </c>
       <c r="C586">
-        <v>0.3316166868807757</v>
+        <v>-0.9941370889463008</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>43739</v>
       </c>
       <c r="C587">
-        <v>-0.1925892617633651</v>
+        <v>1.484770615100972</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -5892,7 +5892,7 @@
         <v>43831</v>
       </c>
       <c r="C588">
-        <v>-4.320651717419732</v>
+        <v>-5.168030726723616</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -5901,7 +5901,7 @@
         <v>43922</v>
       </c>
       <c r="C589">
-        <v>-6.342611331427994</v>
+        <v>-6.214050212477995</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>44013</v>
       </c>
       <c r="C590">
-        <v>7.782357418949948</v>
+        <v>8.247152240216792</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>44105</v>
       </c>
       <c r="C591">
-        <v>1.252816973005388</v>
+        <v>0.7714653010995498</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -5928,7 +5928,7 @@
         <v>44197</v>
       </c>
       <c r="C592">
-        <v>-5.255692656515221</v>
+        <v>-3.40993130834113</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>44287</v>
       </c>
       <c r="C593">
-        <v>1.866416550609884</v>
+        <v>-0.1148288044378387</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -5948,7 +5948,7 @@
         <v>42917</v>
       </c>
       <c r="C594">
-        <v>0.1567630854300006</v>
+        <v>-0.3301000390096953</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>43009</v>
       </c>
       <c r="C595">
-        <v>2.904355141492321</v>
+        <v>1.071137509301656</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>43101</v>
       </c>
       <c r="C596">
-        <v>1.368621942278114</v>
+        <v>1.802087672518526</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -5975,7 +5975,7 @@
         <v>43191</v>
       </c>
       <c r="C597">
-        <v>-0.7876831700907361</v>
+        <v>0.8763165454676924</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -5984,7 +5984,7 @@
         <v>43282</v>
       </c>
       <c r="C598">
-        <v>1.826166923920036</v>
+        <v>0.07466704594440987</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -5993,7 +5993,7 @@
         <v>43374</v>
       </c>
       <c r="C599">
-        <v>1.659903195278023</v>
+        <v>1.85991371407217</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6002,7 +6002,7 @@
         <v>43466</v>
       </c>
       <c r="C600">
-        <v>0.8506062277763071</v>
+        <v>0.5748240516437741</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6011,7 +6011,7 @@
         <v>43556</v>
       </c>
       <c r="C601">
-        <v>1.178757718305201</v>
+        <v>1.439891750464262</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>43647</v>
       </c>
       <c r="C602">
-        <v>-0.06866410424124503</v>
+        <v>1.054056143025983</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>43739</v>
       </c>
       <c r="C603">
-        <v>1.518946532549226</v>
+        <v>1.440620722142061</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -6038,7 +6038,7 @@
         <v>43831</v>
       </c>
       <c r="C604">
-        <v>-5.073393006509363</v>
+        <v>-3.098825277455897</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>43922</v>
       </c>
       <c r="C605">
-        <v>-5.015008151155421</v>
+        <v>-7.634338482162839</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>44013</v>
       </c>
       <c r="C606">
-        <v>7.21846841278575</v>
+        <v>8.282057650623509</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>44105</v>
       </c>
       <c r="C607">
-        <v>-2.792477993229037</v>
+        <v>-2.761885911945883</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -6074,7 +6074,7 @@
         <v>44197</v>
       </c>
       <c r="C608">
-        <v>0.5631534521943315</v>
+        <v>-0.5182793737523506</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -6083,7 +6083,7 @@
         <v>44287</v>
       </c>
       <c r="C609">
-        <v>-4.167419979161291</v>
+        <v>-3.270599353954451</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -6094,7 +6094,7 @@
         <v>42917</v>
       </c>
       <c r="C610">
-        <v>0.06164381168167754</v>
+        <v>0.537239328398087</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -6103,7 +6103,7 @@
         <v>43009</v>
       </c>
       <c r="C611">
-        <v>0.05382621931653286</v>
+        <v>0.2173272394166537</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -6112,7 +6112,7 @@
         <v>43101</v>
       </c>
       <c r="C612">
-        <v>-0.47333218189759</v>
+        <v>-1.10927895065055</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>43191</v>
       </c>
       <c r="C613">
-        <v>1.26399650072988</v>
+        <v>1.793372354717526</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>43282</v>
       </c>
       <c r="C614">
-        <v>-0.4914077300199993</v>
+        <v>-0.02074876813090709</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -6139,7 +6139,7 @@
         <v>43374</v>
       </c>
       <c r="C615">
-        <v>1.088820754214836</v>
+        <v>1.533225474439126</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -6148,7 +6148,7 @@
         <v>43466</v>
       </c>
       <c r="C616">
-        <v>-0.941939503907685</v>
+        <v>-1.243025653491225</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -6157,7 +6157,7 @@
         <v>43556</v>
       </c>
       <c r="C617">
-        <v>-0.02533730091954789</v>
+        <v>-0.4411463087951706</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -6166,7 +6166,7 @@
         <v>43647</v>
       </c>
       <c r="C618">
-        <v>-0.3689821312017005</v>
+        <v>-0.10483218263313</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>43739</v>
       </c>
       <c r="C619">
-        <v>1.483544376082957</v>
+        <v>1.511321318176395</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -6184,7 +6184,7 @@
         <v>43831</v>
       </c>
       <c r="C620">
-        <v>-4.600267695494342</v>
+        <v>-5.030250424861594</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -6193,7 +6193,7 @@
         <v>43922</v>
       </c>
       <c r="C621">
-        <v>-13.88348491909673</v>
+        <v>-13.9016248285902</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -6202,7 +6202,7 @@
         <v>44013</v>
       </c>
       <c r="C622">
-        <v>13.18926051528069</v>
+        <v>12.81717022546245</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -6211,7 +6211,7 @@
         <v>44105</v>
       </c>
       <c r="C623">
-        <v>1.606405753869788</v>
+        <v>2.21229223153554</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>44197</v>
       </c>
       <c r="C624">
-        <v>4.1965045556841</v>
+        <v>3.929729052016095</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>44287</v>
       </c>
       <c r="C625">
-        <v>-6.464962608448033</v>
+        <v>-5.912622440202098</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>42917</v>
       </c>
       <c r="C626">
-        <v>0.2743070658707047</v>
+        <v>0.3734985918402822</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -6249,7 +6249,7 @@
         <v>43009</v>
       </c>
       <c r="C627">
-        <v>0.1539634587255145</v>
+        <v>0.2322759140599429</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -6258,7 +6258,7 @@
         <v>43101</v>
       </c>
       <c r="C628">
-        <v>1.55948829818251</v>
+        <v>0.879026053655485</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -6267,7 +6267,7 @@
         <v>43191</v>
       </c>
       <c r="C629">
-        <v>0.5891426059069227</v>
+        <v>0.8674769126771897</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>43282</v>
       </c>
       <c r="C630">
-        <v>0.6051750547315882</v>
+        <v>0.1461683923555279</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>43374</v>
       </c>
       <c r="C631">
-        <v>0.5606016224088517</v>
+        <v>0.5843141144769692</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -6294,7 +6294,7 @@
         <v>43466</v>
       </c>
       <c r="C632">
-        <v>-0.01722520027049868</v>
+        <v>0.1329103348688854</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -6303,7 +6303,7 @@
         <v>43556</v>
       </c>
       <c r="C633">
-        <v>0.6430094298917943</v>
+        <v>0.9078512740162248</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -6312,7 +6312,7 @@
         <v>43647</v>
       </c>
       <c r="C634">
-        <v>-0.04819073573539834</v>
+        <v>0.08445474467786429</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -6321,7 +6321,7 @@
         <v>43739</v>
       </c>
       <c r="C635">
-        <v>1.005940220169865</v>
+        <v>0.6058227324103216</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>43831</v>
       </c>
       <c r="C636">
-        <v>-7.015541845401496</v>
+        <v>-6.41527822535598</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>43922</v>
       </c>
       <c r="C637">
-        <v>-14.6743588103665</v>
+        <v>-15.03747325302897</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -6348,7 +6348,7 @@
         <v>44013</v>
       </c>
       <c r="C638">
-        <v>15.34485890711685</v>
+        <v>15.24131204913926</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -6357,7 +6357,7 @@
         <v>44105</v>
       </c>
       <c r="C639">
-        <v>0.4738357403163418</v>
+        <v>0.6946840236363938</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -6366,7 +6366,7 @@
         <v>44197</v>
       </c>
       <c r="C640">
-        <v>2.803941381747999</v>
+        <v>3.733483349085565</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -6375,7 +6375,7 @@
         <v>44287</v>
       </c>
       <c r="C641">
-        <v>-6.000397808744573</v>
+        <v>-5.276712963319841</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -6386,7 +6386,7 @@
         <v>42917</v>
       </c>
       <c r="C642">
-        <v>0.09558325942675694</v>
+        <v>1.02361647045297</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>43009</v>
       </c>
       <c r="C643">
-        <v>1.13930265943607</v>
+        <v>0.8902964512130573</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -6404,7 +6404,7 @@
         <v>43101</v>
       </c>
       <c r="C644">
-        <v>-0.1774255584120255</v>
+        <v>-0.007111385851932273</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -6413,7 +6413,7 @@
         <v>43191</v>
       </c>
       <c r="C645">
-        <v>1.317326109983985</v>
+        <v>1.044779862603007</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -6422,7 +6422,7 @@
         <v>43282</v>
       </c>
       <c r="C646">
-        <v>0.7054012283703059</v>
+        <v>0.8231857545820009</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>43374</v>
       </c>
       <c r="C647">
-        <v>-0.2757622200403653</v>
+        <v>-0.4060539187023204</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>43466</v>
       </c>
       <c r="C648">
-        <v>0.8111032173354182</v>
+        <v>0.5942303403746241</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>43556</v>
       </c>
       <c r="C649">
-        <v>0.8604854439574039</v>
+        <v>0.4285866351936285</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C650">
-        <v>-0.4630197091012422</v>
+        <v>-0.005861092928072242</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -6467,7 +6467,7 @@
         <v>43739</v>
       </c>
       <c r="C651">
-        <v>1.239882546322391</v>
+        <v>1.197139524458235</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -6476,7 +6476,7 @@
         <v>43831</v>
       </c>
       <c r="C652">
-        <v>-3.030166288743497</v>
+        <v>-2.503773945838272</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -6485,7 +6485,7 @@
         <v>43922</v>
       </c>
       <c r="C653">
-        <v>-6.789876753495561</v>
+        <v>-6.018940650299919</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>44013</v>
       </c>
       <c r="C654">
-        <v>6.062032429184261</v>
+        <v>5.250140499579259</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -6503,7 +6503,7 @@
         <v>44105</v>
       </c>
       <c r="C655">
-        <v>-0.5278132231381294</v>
+        <v>0.5684385887604337</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -6512,7 +6512,7 @@
         <v>44197</v>
       </c>
       <c r="C656">
-        <v>2.401669605651602</v>
+        <v>1.268394062603728</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -6521,7 +6521,7 @@
         <v>44287</v>
       </c>
       <c r="C657">
-        <v>-2.098424584118508</v>
+        <v>-2.788797569821444</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -6532,7 +6532,7 @@
         <v>42917</v>
       </c>
       <c r="C658">
-        <v>1.133498669393407</v>
+        <v>0.9817240155799878</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -6541,7 +6541,7 @@
         <v>43009</v>
       </c>
       <c r="C659">
-        <v>0.3524323255589046</v>
+        <v>0.4547308117718973</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>43101</v>
       </c>
       <c r="C660">
-        <v>0.3556045869933744</v>
+        <v>0.04761913933393203</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>43191</v>
       </c>
       <c r="C661">
-        <v>0.05334089910689066</v>
+        <v>0.1683410510355365</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -6568,7 +6568,7 @@
         <v>43282</v>
       </c>
       <c r="C662">
-        <v>0.70626764860382</v>
+        <v>0.6439905587794836</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -6577,7 +6577,7 @@
         <v>43374</v>
       </c>
       <c r="C663">
-        <v>0.5284359553621165</v>
+        <v>0.7738197059276697</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -6586,7 +6586,7 @@
         <v>43466</v>
       </c>
       <c r="C664">
-        <v>1.177739862831806</v>
+        <v>1.204521093585975</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>43556</v>
       </c>
       <c r="C665">
-        <v>1.16267268125998</v>
+        <v>0.791701847441395</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>43647</v>
       </c>
       <c r="C666">
-        <v>-0.4840066811067856</v>
+        <v>-0.9175913467395658</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -6613,7 +6613,7 @@
         <v>43739</v>
       </c>
       <c r="C667">
-        <v>0.380789133273618</v>
+        <v>1.066947609612701</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -6622,7 +6622,7 @@
         <v>43831</v>
       </c>
       <c r="C668">
-        <v>-5.087771441575883</v>
+        <v>-5.104285756790638</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -6631,7 +6631,7 @@
         <v>43922</v>
       </c>
       <c r="C669">
-        <v>-5.728014148214944</v>
+        <v>-5.107773953768513</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -6640,7 +6640,7 @@
         <v>44013</v>
       </c>
       <c r="C670">
-        <v>8.40100018986092</v>
+        <v>7.900477857268551</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -6649,7 +6649,7 @@
         <v>44105</v>
       </c>
       <c r="C671">
-        <v>-1.070372281600029</v>
+        <v>-1.109337495973273</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>44197</v>
       </c>
       <c r="C672">
-        <v>3.195606191293043</v>
+        <v>4.079506290998869</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -6667,7 +6667,7 @@
         <v>44287</v>
       </c>
       <c r="C673">
-        <v>-1.45383680632698</v>
+        <v>-0.8994558087438986</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -6678,7 +6678,7 @@
         <v>42917</v>
       </c>
       <c r="C674">
-        <v>-2.53214669038847</v>
+        <v>-2.116305988446954</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -6687,7 +6687,7 @@
         <v>43009</v>
       </c>
       <c r="C675">
-        <v>4.999611845533192</v>
+        <v>4.991069416880789</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -6696,7 +6696,7 @@
         <v>43101</v>
       </c>
       <c r="C676">
-        <v>0.7071537383955606</v>
+        <v>0.5569609924471086</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>43191</v>
       </c>
       <c r="C677">
-        <v>1.286102054786498</v>
+        <v>2.317061847627011</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>43282</v>
       </c>
       <c r="C678">
-        <v>-0.6703074457971581</v>
+        <v>-1.218653093264366</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -6723,7 +6723,7 @@
         <v>43374</v>
       </c>
       <c r="C679">
-        <v>-0.7907448092987268</v>
+        <v>-0.4939279222460957</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -6732,7 +6732,7 @@
         <v>43466</v>
       </c>
       <c r="C680">
-        <v>1.605001862569977</v>
+        <v>1.562741961453318</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -6741,7 +6741,7 @@
         <v>43556</v>
       </c>
       <c r="C681">
-        <v>1.875797178022931</v>
+        <v>1.896292219081119</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -6750,7 +6750,7 @@
         <v>43647</v>
       </c>
       <c r="C682">
-        <v>-0.2435028999436484</v>
+        <v>-0.7120313460625693</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>43739</v>
       </c>
       <c r="C683">
-        <v>-0.7494339939046135</v>
+        <v>-0.4358784667163551</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>43831</v>
       </c>
       <c r="C684">
-        <v>-1.119015468662621</v>
+        <v>-1.054240334129031</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -6777,7 +6777,7 @@
         <v>43922</v>
       </c>
       <c r="C685">
-        <v>-7.425961481936893</v>
+        <v>-7.016620326849299</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>44013</v>
       </c>
       <c r="C686">
-        <v>10.87654282501958</v>
+        <v>10.46208746978088</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>44105</v>
       </c>
       <c r="C687">
-        <v>1.586984021866544</v>
+        <v>3.283498477669422</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -6804,7 +6804,7 @@
         <v>44197</v>
       </c>
       <c r="C688">
-        <v>-0.3271091456642283</v>
+        <v>0.4220107393914985</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>44287</v>
       </c>
       <c r="C689">
-        <v>-4.882975663475097</v>
+        <v>-7.975406250001238</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -6824,7 +6824,7 @@
         <v>42917</v>
       </c>
       <c r="C690">
-        <v>0.5006289963546351</v>
+        <v>0.4414931755868379</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -6833,7 +6833,7 @@
         <v>43009</v>
       </c>
       <c r="C691">
-        <v>0.5894429366888998</v>
+        <v>0.58206579724287</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -6842,7 +6842,7 @@
         <v>43101</v>
       </c>
       <c r="C692">
-        <v>0.7319048162680142</v>
+        <v>0.7412809996269365</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>43191</v>
       </c>
       <c r="C693">
-        <v>0.7493063942210387</v>
+        <v>0.5528033787954634</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -6860,7 +6860,7 @@
         <v>43282</v>
       </c>
       <c r="C694">
-        <v>-0.2483490746230221</v>
+        <v>-0.5483448479770781</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -6869,7 +6869,7 @@
         <v>43374</v>
       </c>
       <c r="C695">
-        <v>0.4376254198281249</v>
+        <v>0.7025235019680887</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>43466</v>
       </c>
       <c r="C696">
-        <v>-0.4046050885724961</v>
+        <v>-0.3639302546368794</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -6887,7 +6887,7 @@
         <v>43556</v>
       </c>
       <c r="C697">
-        <v>0.367142868287651</v>
+        <v>0.7628398623247268</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -6896,7 +6896,7 @@
         <v>43647</v>
       </c>
       <c r="C698">
-        <v>0.6346432783975064</v>
+        <v>0.3330507733082744</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>43739</v>
       </c>
       <c r="C699">
-        <v>-0.2913921927519159</v>
+        <v>-0.08161980651267831</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>43831</v>
       </c>
       <c r="C700">
-        <v>-4.083263842498585</v>
+        <v>-3.963885775712084</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>43922</v>
       </c>
       <c r="C701">
-        <v>-14.9054910509955</v>
+        <v>-14.97414774533076</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -6932,7 +6932,7 @@
         <v>44013</v>
       </c>
       <c r="C702">
-        <v>14.55197623806215</v>
+        <v>14.26384829451335</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -6941,7 +6941,7 @@
         <v>44105</v>
       </c>
       <c r="C703">
-        <v>-0.2119417268547918</v>
+        <v>0.3112010181808067</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>44197</v>
       </c>
       <c r="C704">
-        <v>0.6134709182902931</v>
+        <v>1.820822410644252</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -6959,7 +6959,7 @@
         <v>44287</v>
       </c>
       <c r="C705">
-        <v>-5.692804452688394</v>
+        <v>-4.052171036015107</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -6970,7 +6970,7 @@
         <v>42917</v>
       </c>
       <c r="C706">
-        <v>0.7992205201207359</v>
+        <v>0.7344323135026976</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -6979,7 +6979,7 @@
         <v>43009</v>
       </c>
       <c r="C707">
-        <v>0.7013478171290499</v>
+        <v>0.8177444752882845</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>43101</v>
       </c>
       <c r="C708">
-        <v>0.852522101578379</v>
+        <v>0.6427017277451652</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -6997,7 +6997,7 @@
         <v>43191</v>
       </c>
       <c r="C709">
-        <v>0.1937145542745489</v>
+        <v>0.1830112648760318</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>43282</v>
       </c>
       <c r="C710">
-        <v>0.5503101318727888</v>
+        <v>-0.1830974612378689</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>43374</v>
       </c>
       <c r="C711">
-        <v>0.4929564208282056</v>
+        <v>1.061265978837467</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>43466</v>
       </c>
       <c r="C712">
-        <v>0.9531233538126571</v>
+        <v>1.240917586327939</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -7033,7 +7033,7 @@
         <v>43556</v>
       </c>
       <c r="C713">
-        <v>0.6127131621399329</v>
+        <v>0.5971478069055403</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -7042,7 +7042,7 @@
         <v>43647</v>
       </c>
       <c r="C714">
-        <v>0.9112458528585332</v>
+        <v>0.8876509442592218</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -7051,7 +7051,7 @@
         <v>43739</v>
       </c>
       <c r="C715">
-        <v>0.1644665249505461</v>
+        <v>0.3996721263847203</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>43831</v>
       </c>
       <c r="C716">
-        <v>-2.497093790226423</v>
+        <v>-2.617025542531981</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -7069,7 +7069,7 @@
         <v>43922</v>
       </c>
       <c r="C717">
-        <v>-7.225642020457146</v>
+        <v>-7.576946667542361</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>44013</v>
       </c>
       <c r="C718">
-        <v>5.820693850598913</v>
+        <v>5.926227821419117</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>44105</v>
       </c>
       <c r="C719">
-        <v>2.20105114010769</v>
+        <v>2.598854038439424</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -7096,7 +7096,7 @@
         <v>44197</v>
       </c>
       <c r="C720">
-        <v>3.481837917166519</v>
+        <v>4.175384356643841</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -7105,7 +7105,7 @@
         <v>44287</v>
       </c>
       <c r="C721">
-        <v>0.4957602208960576</v>
+        <v>0.6599783357965405</v>
       </c>
     </row>
   </sheetData>
